--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMU\Desktop\resubmission\PooPooPipe_audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AD289-22A5-4A95-9DAC-07EF55E0A100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A36BD2-FD43-45D5-AEBA-6569593218EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>TYPE</t>
   </si>
@@ -108,24 +106,127 @@
   </si>
   <si>
     <t>chocob0217@gmail.com</t>
+  </si>
+  <si>
+    <t>fart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Level stage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flushing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>footprint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaven</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>siren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeah</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for prologue cutscene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for clear level &amp; prologue cutscene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for digipen logo &amp; fmod logo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for failing sign &amp; team logo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for level5 yellow puzzle explanation)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (every UI in every level)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for success the level transition)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prologue cutscene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/shaundoogan/sounds/465486/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Fewes/sounds/234263/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Robinhood76/sounds/467441/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Free-Rush/sounds/472506/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/guitarguy1985/sounds/70938/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/elmasmalo1/sounds/376968/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/simon.rue/sounds/49952/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,22 +234,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,7 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -344,6 +452,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="강조색6" xfId="1" builtinId="49"/>
@@ -660,23 +770,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.09765625" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.296875" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="102.28515625" customWidth="1"/>
+    <col min="6" max="6" width="102.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -684,12 +794,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -697,7 +807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -705,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -725,7 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -745,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -765,12 +875,128 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{AEE1EA5F-F8FB-4E65-B794-0E3206A57BD5}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{67110A2E-568B-4904-A93B-8AB6417E91B6}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{258DA234-D4CE-489F-8AF6-89AB342877FD}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{AD0A0BAB-34F4-4B09-969E-6E96641A23E5}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{753C0CA4-1108-4CDE-8236-3B0647E9F881}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{501C8398-B74E-4567-81E1-F0C21F8F6333}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{4177677C-D94B-4285-8A4F-E7963BD3F532}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{33E41E1C-72B2-4222-B48C-212599A0BFA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\DOCUME~1\new_99\GUGUEN~1\SUBMIS~1\POOPOO~2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A36BD2-FD43-45D5-AEBA-6569593218EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792FD7EC-7450-45C5-9D15-3FADCBED0181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>TYPE</t>
   </si>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>https://freesound.org/people/simon.rue/sounds/49952/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/manotrop/sounds/202548/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -885,6 +889,7 @@
       <c r="C9" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="18" t="s">
         <v>44</v>
       </c>
@@ -898,6 +903,9 @@
       </c>
       <c r="C10" s="17" t="s">
         <v>26</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -995,8 +1003,9 @@
     <hyperlink ref="E14" r:id="rId6" xr:uid="{501C8398-B74E-4567-81E1-F0C21F8F6333}"/>
     <hyperlink ref="E15" r:id="rId7" xr:uid="{4177677C-D94B-4285-8A4F-E7963BD3F532}"/>
     <hyperlink ref="E16" r:id="rId8" xr:uid="{33E41E1C-72B2-4222-B48C-212599A0BFA7}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{0F31096D-EE2B-46E4-B658-D09C2125867E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\DOCUME~1\new_99\GUGUEN~1\SUBMIS~1\POOPOO~2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungjin\Desktop\99\GUGUENGINE\Submission\poopoopipe_licenses\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792FD7EC-7450-45C5-9D15-3FADCBED0181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28ECCC1-ED04-409E-BEA2-883AEDBD0CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
+    <workbookView xWindow="0" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>TYPE</t>
   </si>
@@ -96,9 +96,6 @@
     <t>royalty free sounds for filmmakers, sound designers, music producers, film students, and multimedia developers</t>
   </si>
   <si>
-    <t>tema 99</t>
-  </si>
-  <si>
     <t>Effect sound (for rotating pipe)</t>
   </si>
   <si>
@@ -196,22 +193,71 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>https://freesound.org/people/guitarguy1985/sounds/70938/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/elmasmalo1/sounds/376968/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/simon.rue/sounds/49952/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/manotrop/sounds/202548/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>team 99</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaundoogan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>manotrop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fewes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robinhood76</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free-Rush</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guitarguy1985</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>elmasmalo1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>simon.rue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0(No Copyright, Public Domain Dedication)/ https://creativecommons.org/publicdomain/zero/1.0/deed.en</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/deed.en</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC BY-NC 3.0(Attribution-NonCommercial 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by-nc/3.0/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>https://freesound.org/people/Free-Rush/sounds/472506/</t>
-  </si>
-  <si>
-    <t>https://freesound.org/people/guitarguy1985/sounds/70938/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/elmasmalo1/sounds/376968/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/simon.rue/sounds/49952/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/manotrop/sounds/202548/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -776,21 +822,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="42.09765625" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" customWidth="1"/>
-    <col min="4" max="4" width="29.296875" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="102.296875" customWidth="1"/>
+    <col min="6" max="6" width="108.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -798,12 +844,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -811,15 +857,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -839,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -859,12 +905,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>8</v>
@@ -879,117 +925,164 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F14" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
+      <c r="F16" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1097,9 @@
     <hyperlink ref="E15" r:id="rId7" xr:uid="{4177677C-D94B-4285-8A4F-E7963BD3F532}"/>
     <hyperlink ref="E16" r:id="rId8" xr:uid="{33E41E1C-72B2-4222-B48C-212599A0BFA7}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{0F31096D-EE2B-46E4-B658-D09C2125867E}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{46EA48EF-BBBE-4F5A-B0A2-CF166747BAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungjin\Desktop\99\GUGUENGINE\Submission\poopoopipe_licenses\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28ECCC1-ED04-409E-BEA2-883AEDBD0CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B517ADF-BC48-44DA-829E-95370AFE8B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
+    <workbookView xWindow="7632" yWindow="3396" windowWidth="15408" windowHeight="8964" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>TYPE</t>
   </si>
@@ -258,6 +258,54 @@
   </si>
   <si>
     <t>https://freesound.org/people/Free-Rush/sounds/472506/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for ending cut scene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for click everywhere with input)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for dropping puzzle after dragging)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epilogue cutscene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All stage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All level stage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/411642/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/qubodup/sounds/171939/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/olsonbock623/sounds/442295/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -820,23 +868,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="42.125" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="42.09765625" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
     <col min="6" max="6" width="108.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -844,12 +892,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -857,7 +905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -865,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -885,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -905,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -925,7 +973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -945,7 +993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -965,7 +1013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -985,7 +1033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +1053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1065,7 +1113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1083,6 +1131,48 @@
       </c>
       <c r="F16" s="17" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1098,8 +1188,11 @@
     <hyperlink ref="E16" r:id="rId8" xr:uid="{33E41E1C-72B2-4222-B48C-212599A0BFA7}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{0F31096D-EE2B-46E4-B658-D09C2125867E}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{46EA48EF-BBBE-4F5A-B0A2-CF166747BAD3}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{E61B2DFF-FDD7-45C2-8BE2-31DAEE855415}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{5C378BE5-F7B2-4C93-9558-C9C33EBC9604}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{E1BACEB2-EB81-4CAF-94E5-93B62C53176F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B517ADF-BC48-44DA-829E-95370AFE8B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8C21A-6F28-420C-B628-0C2B440191F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="3396" windowWidth="15408" windowHeight="8964" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>TYPE</t>
   </si>
@@ -301,11 +301,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>https://freesound.org/people/olsonbock623/sounds/442295/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>olsonbock623</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>InspectorJ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>https://freesound.org/people/qubodup/sounds/171939/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/olsonbock623/sounds/442295/</t>
+  </si>
+  <si>
+    <t>qubodup</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0 1.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -870,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1133,7 +1148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1143,11 +1158,17 @@
       <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
+      <c r="D17" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1157,11 +1178,17 @@
       <c r="C18" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D18" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1171,8 +1198,14 @@
       <c r="C19" s="17" t="s">
         <v>71</v>
       </c>
+      <c r="D19" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8C21A-6F28-420C-B628-0C2B440191F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E7EB31-B282-4378-B34A-11617C522774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>TYPE</t>
   </si>
@@ -320,7 +320,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CC0 1.0</t>
+    <t>control</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for control sound in option)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/CS279/sounds/200469/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS279</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0 1.0(No Copyright, Public Domain Dedication)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1165,7 +1185,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1205,7 +1225,27 @@
         <v>76</v>
       </c>
       <c r="F19" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1224,8 +1264,9 @@
     <hyperlink ref="E18" r:id="rId11" xr:uid="{E61B2DFF-FDD7-45C2-8BE2-31DAEE855415}"/>
     <hyperlink ref="E19" r:id="rId12" xr:uid="{5C378BE5-F7B2-4C93-9558-C9C33EBC9604}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{E1BACEB2-EB81-4CAF-94E5-93B62C53176F}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{AEF05B35-7635-4A7E-BFBA-9B457BDD88B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E7EB31-B282-4378-B34A-11617C522774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC9B1D-1F1C-488B-806B-6C2593A69B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>TYPE</t>
   </si>
@@ -340,7 +340,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CC0 1.0(No Copyright, Public Domain Dedication)</t>
+    <t>CC0 1.0(No Copyright, Public Domain Dedication)/ https://creativecommons.org/publicdomain/zero/1.0/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1209,7 @@
         <v>72</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">

--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC9B1D-1F1C-488B-806B-6C2593A69B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF545FB2-B81F-49E3-A483-787FB473A58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>TYPE</t>
   </si>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://freesound.org/people/Robinhood76/sounds/467441/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://freesound.org/people/guitarguy1985/sounds/70938/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -225,10 +221,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Robinhood76</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Free-Rush</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -253,10 +245,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CC BY-NC 3.0(Attribution-NonCommercial 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by-nc/3.0/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://freesound.org/people/Free-Rush/sounds/472506/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -345,6 +333,14 @@
   </si>
   <si>
     <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/random_intruder/sounds/392172/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_intruder</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +906,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -933,7 +929,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1023,13 +1019,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1043,13 +1039,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1063,13 +1059,13 @@
         <v>40</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1083,13 +1079,13 @@
         <v>40</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1103,13 +1099,13 @@
         <v>41</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1123,13 +1119,13 @@
         <v>42</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1143,13 +1139,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1163,93 +1159,93 @@
         <v>25</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF545FB2-B81F-49E3-A483-787FB473A58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4FCBC-6037-4B6D-8DAA-B56DC8060C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>TYPE</t>
   </si>
@@ -51,296 +51,340 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>Hawaiian Weekend</t>
-  </si>
-  <si>
     <t>Coin</t>
   </si>
   <si>
     <t>All Level stage</t>
   </si>
   <si>
+    <t xml:space="preserve">PooPooPipe </t>
+  </si>
+  <si>
+    <t>Audio Asset List</t>
+  </si>
+  <si>
+    <t>Kim hagyeong</t>
+  </si>
+  <si>
+    <t>digipen.hagyeong@gmail.com</t>
+  </si>
+  <si>
+    <t>Igor Khainsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royalty free music for YouTube, Facebook and Instagram videos and etc, giving the appropriate credit. </t>
+  </si>
+  <si>
+    <t>PacDV</t>
+  </si>
+  <si>
+    <t>https://www.pacdv.com/sounds/mechanical_sounds.html</t>
+  </si>
+  <si>
+    <t>royalty free sounds for filmmakers, sound designers, music producers, film students, and multimedia developers</t>
+  </si>
+  <si>
+    <t>Effect sound (for rotating pipe)</t>
+  </si>
+  <si>
+    <t>Hong Eunjin</t>
+  </si>
+  <si>
+    <t>chocob0217@gmail.com</t>
+  </si>
+  <si>
+    <t>fart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Level stage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flushing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>footprint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heaven</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>siren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeah</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for prologue cutscene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for clear level &amp; prologue cutscene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for digipen logo &amp; fmod logo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for failing sign &amp; team logo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for level5 yellow puzzle explanation)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (every UI in every level)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for success the level transition)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prologue cutscene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/shaundoogan/sounds/465486/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Fewes/sounds/234263/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/guitarguy1985/sounds/70938/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/elmasmalo1/sounds/376968/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/simon.rue/sounds/49952/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/manotrop/sounds/202548/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>team 99</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaundoogan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>manotrop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fewes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free-Rush</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guitarguy1985</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>elmasmalo1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>simon.rue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0(No Copyright, Public Domain Dedication)/ https://creativecommons.org/publicdomain/zero/1.0/deed.en</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/deed.en</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Free-Rush/sounds/472506/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for ending cut scene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound (for click everywhere with input)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for dropping puzzle after dragging)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epilogue cutscene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>All stage</t>
-  </si>
-  <si>
-    <t>Background(main thema)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PooPooPipe </t>
-  </si>
-  <si>
-    <t>Audio Asset List</t>
-  </si>
-  <si>
-    <t>Kim hagyeong</t>
-  </si>
-  <si>
-    <t>digipen.hagyeong@gmail.com</t>
-  </si>
-  <si>
-    <t>Igor Khainsk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>All level stage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/411642/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/olsonbock623/sounds/442295/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>olsonbock623</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>InspectorJ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/qubodup/sounds/171939/</t>
+  </si>
+  <si>
+    <t>qubodup</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for control sound in option)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/CS279/sounds/200469/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS279</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0 1.0(No Copyright, Public Domain Dedication)/ https://creativecommons.org/publicdomain/zero/1.0/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/random_intruder/sounds/392172/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_intruder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/xtrgamr/sounds/244529/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_another</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_theother</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_airplane</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=7O0WVaaB_x8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royalty free music for YouTube, Facebook and Instagram videos and etc, giving the appropriate credit. </t>
-  </si>
-  <si>
-    <t>PacDV</t>
-  </si>
-  <si>
-    <t>https://www.pacdv.com/sounds/mechanical_sounds.html</t>
-  </si>
-  <si>
-    <t>royalty free sounds for filmmakers, sound designers, music producers, film students, and multimedia developers</t>
-  </si>
-  <si>
-    <t>Effect sound (for rotating pipe)</t>
-  </si>
-  <si>
-    <t>Hong Eunjin</t>
-  </si>
-  <si>
-    <t>chocob0217@gmail.com</t>
-  </si>
-  <si>
-    <t>fart</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Level stage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flushing</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>footprint</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>heaven</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>siren</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeah</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for prologue cutscene)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for clear level &amp; prologue cutscene)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for digipen logo &amp; fmod logo)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for failing sign &amp; team logo)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for level5 yellow puzzle explanation)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (every UI in every level)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for success the level transition)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prologue cutscene</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/shaundoogan/sounds/465486/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/Fewes/sounds/234263/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/guitarguy1985/sounds/70938/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/elmasmalo1/sounds/376968/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/simon.rue/sounds/49952/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/manotrop/sounds/202548/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>team 99</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shaundoogan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>manotrop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fewes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free-Rush</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>guitarguy1985</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>elmasmalo1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>simon.rue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0(No Copyright, Public Domain Dedication)/ https://creativecommons.org/publicdomain/zero/1.0/deed.en</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/deed.en</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/Free-Rush/sounds/472506/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound(for ending cut scene)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound (for click everywhere with input)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound(for dropping puzzle after dragging)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>epilogue cutscene</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>All stage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>All level stage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/InspectorJ/sounds/411642/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/olsonbock623/sounds/442295/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>olsonbock623</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>InspectorJ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/qubodup/sounds/171939/</t>
-  </si>
-  <si>
-    <t>qubodup</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>control</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect sound(for control sound in option)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>option</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/CS279/sounds/200469/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS279</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0 1.0(No Copyright, Public Domain Dedication)/ https://creativecommons.org/publicdomain/zero/1.0/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC BY 3.0(Attribution 3.0 Unported, free to share and adapt)/ https://creativecommons.org/licenses/by/3.0/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://freesound.org/people/random_intruder/sounds/392172/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_intruder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background(level 5~8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background(9~11)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level 5~8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9~11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>main menu and level 1~4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background(main menu and level 1~4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xtrgamr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Clacksberg/sounds/506324/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clacksberg</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -587,6 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="강조색6" xfId="1" builtinId="49"/>
@@ -903,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -921,31 +966,31 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -970,282 +1015,322 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="17" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>80</v>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1350,11 @@
     <hyperlink ref="E19" r:id="rId12" xr:uid="{5C378BE5-F7B2-4C93-9558-C9C33EBC9604}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{E1BACEB2-EB81-4CAF-94E5-93B62C53176F}"/>
     <hyperlink ref="E20" r:id="rId14" xr:uid="{AEF05B35-7635-4A7E-BFBA-9B457BDD88B3}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{29559EF7-1C15-45F9-8853-ACC61A536881}"/>
+    <hyperlink ref="E7" r:id="rId16" xr:uid="{924E85FE-9BBA-474A-B218-6A95800931C7}"/>
+    <hyperlink ref="E22" r:id="rId17" xr:uid="{692313AB-D77C-461D-9630-ABD15FC902B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4FCBC-6037-4B6D-8DAA-B56DC8060C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC6703-6D6F-4373-A61F-3F3449F4F505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>TYPE</t>
   </si>
@@ -69,12 +69,6 @@
     <t>digipen.hagyeong@gmail.com</t>
   </si>
   <si>
-    <t>Igor Khainsk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royalty free music for YouTube, Facebook and Instagram videos and etc, giving the appropriate credit. </t>
-  </si>
-  <si>
     <t>PacDV</t>
   </si>
   <si>
@@ -344,14 +338,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>BGM_airplane</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=7O0WVaaB_x8 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Background(level 5~8)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -385,6 +371,18 @@
   </si>
   <si>
     <t>Clacksberg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_new</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/plasterbrain/sounds/464914/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>plasterbrain</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -950,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -974,7 +972,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -987,10 +985,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1015,22 +1013,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1038,299 +1036,299 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F18" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
       <c r="C21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
       <c r="C22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F22" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC6703-6D6F-4373-A61F-3F3449F4F505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5E74AE-C053-4E07-B519-CFB27E3CDB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TYPE</t>
   </si>
@@ -69,15 +69,6 @@
     <t>digipen.hagyeong@gmail.com</t>
   </si>
   <si>
-    <t>PacDV</t>
-  </si>
-  <si>
-    <t>https://www.pacdv.com/sounds/mechanical_sounds.html</t>
-  </si>
-  <si>
-    <t>royalty free sounds for filmmakers, sound designers, music producers, film students, and multimedia developers</t>
-  </si>
-  <si>
     <t>Effect sound (for rotating pipe)</t>
   </si>
   <si>
@@ -383,6 +374,14 @@
   </si>
   <si>
     <t>plasterbrain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/robbeman/sounds/495643/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>robbeman</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -972,7 +971,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -985,10 +984,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1013,22 +1012,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1036,299 +1035,299 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1350,9 @@
     <hyperlink ref="E21" r:id="rId15" xr:uid="{29559EF7-1C15-45F9-8853-ACC61A536881}"/>
     <hyperlink ref="E7" r:id="rId16" xr:uid="{924E85FE-9BBA-474A-B218-6A95800931C7}"/>
     <hyperlink ref="E22" r:id="rId17" xr:uid="{692313AB-D77C-461D-9630-ABD15FC902B4}"/>
+    <hyperlink ref="E8" r:id="rId18" xr:uid="{E3108963-77D4-4C91-91A6-58FDFAB89834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5E74AE-C053-4E07-B519-CFB27E3CDB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848D8D4-7496-4752-92DA-72C15FD1BCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>TYPE</t>
   </si>
@@ -382,6 +382,37 @@
   </si>
   <si>
     <t>robbeman</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/gynation/sounds/82378/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect sound(for prologue and epilogue cutscene)</t>
+  </si>
+  <si>
+    <t>Effect sound(for prologue and epilogue cutscene)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutscene</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gynation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/411460/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1328,6 +1359,46 @@
       </c>
       <c r="F22" s="17" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1422,10 @@
     <hyperlink ref="E7" r:id="rId16" xr:uid="{924E85FE-9BBA-474A-B218-6A95800931C7}"/>
     <hyperlink ref="E22" r:id="rId17" xr:uid="{692313AB-D77C-461D-9630-ABD15FC902B4}"/>
     <hyperlink ref="E8" r:id="rId18" xr:uid="{E3108963-77D4-4C91-91A6-58FDFAB89834}"/>
+    <hyperlink ref="E23" r:id="rId19" xr:uid="{25463923-E168-4BCD-84A3-A981451E4655}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{8D205A86-0CF1-4B57-89FA-7B21D72F4CB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
+++ b/GUGUENGINE/Submission/poopoopipe_audio/PooPooPiPe_AudioAssetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\new_99\GUGUENGINE\Submission\poopoopipe_audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hagye\Desktop\class\PooPooPiPe_ruru\GUGUENGINE\Submission\poopoopipe_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848D8D4-7496-4752-92DA-72C15FD1BCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9795D-CE9A-48FD-8D64-168ED2E26968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
+    <workbookView xWindow="1065" yWindow="4215" windowWidth="27435" windowHeight="11385" xr2:uid="{CB4C77F7-B7D2-4139-A786-672F64E4011D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,17 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -559,17 +548,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -615,6 +593,24 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -623,7 +619,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -635,31 +631,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="강조색6" xfId="1" builtinId="49"/>
@@ -978,21 +976,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02750-4D03-4053-A6F0-C8A4AF7657B9}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="42.09765625" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" customWidth="1"/>
-    <col min="4" max="4" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
     <col min="6" max="6" width="108.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1000,12 +998,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1034,370 +1032,370 @@
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="20" t="s">
         <v>72</v>
       </c>
     </row>
